--- a/Companies/Automobile - Passenger Cars/Maruti Suzuki India Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
+++ b/Companies/Automobile - Passenger Cars/Maruti Suzuki India Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '22</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '22</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '22</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '23</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '23</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '23</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '22</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '22</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '22</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>25,286.30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>28,543.50</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27,849.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30,821.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>30,845.20</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>30,821.80</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27,849.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>28,543.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>25,286.30</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>30845.2</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>25286.3</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>28669.2</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>1,213.50</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1,387.30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1,195.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1,226.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>1,481.70</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1,226.20</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1,195.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1,387.30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1,213.50</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1481.7</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>1195.1</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>1300.76</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>26,499.80</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>29,930.80</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29,044.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32,048.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>32,326.90</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>32,048.00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>29,044.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>29,930.80</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>26,499.80</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>32326.9</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>26499.8</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>29969.96</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>12,237.70</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>13,238.10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10,212.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10,981.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>10,483.10</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10,981.70</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10,212.50</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>13,238.10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>12,237.70</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>13238.1</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>10212.5</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>11430.62</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>7,561.50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8,796.40</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11,078.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12,541.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>13,148.20</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>12,541.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11,078.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8,796.40</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7,561.50</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>13148.2</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>7561.5</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>10625.08</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>-29.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-154.40</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-185.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-35.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-99.60</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-35.30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-185.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-154.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-29.00</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>-29</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-185</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-100.66</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1,158.40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,132.70</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,201.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,113.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,460.90</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1,113.00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,201.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,132.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,158.40</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1460.9</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1113</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1213.2</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>651.40</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>722.60</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>710.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>739.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>747.50</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>739.20</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>710.10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>722.60</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>651.40</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>747.5</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>651.4</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>714.1600000000001</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>3,659.10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4,149.10</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3,904.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4,097.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>4,351.30</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4,097.30</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3,904.40</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4,149.10</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3,659.10</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>4351.3</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>3659.1</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>4032.24</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>1,260.70</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2,046.30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2,123.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2,611.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>2,235.50</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2,611.10</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2,123.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2,046.30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1,260.70</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>2611.1</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>1260.7</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>2055.32</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>612.50</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>860.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>742.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,001.20</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>742.80</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>860.80</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>612.50</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>88.50</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1001.2</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>661.1600000000001</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>1,349.20</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2,658.80</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2,983.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3,353.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>3,236.70</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3,353.90</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2,983.80</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2,658.80</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1,349.20</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>3353.9</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>1349.2</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>2716.48</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>27.40</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>30.50</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>46.50</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>99.10</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>29.60</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>30.50</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>27.40</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>46.62</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>1,321.80</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2,628.30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2,954.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3,254.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>3,190.20</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3,254.80</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2,954.20</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2,628.30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1,321.80</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>3254.8</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>1321.8</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>2669.86</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,321.80</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2,628.30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,954.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3,254.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>3,190.20</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3,254.80</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,954.20</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2,628.30</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,321.80</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>3254.8</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>1321.8</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2669.86</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>309.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>566.80</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>602.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>631.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>705.10</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>631.20</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>602.90</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>566.80</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>309.00</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>705.1</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>309</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>563</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>1,012.80</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2,061.50</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2,351.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2,623.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>2,485.10</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2,623.60</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2,351.30</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2,061.50</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1,012.80</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>2623.6</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>1012.8</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>2106.86</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>1,012.80</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,061.50</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2,351.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2,623.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>2,485.10</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2,623.60</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2,351.30</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2,061.50</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1,012.80</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>2623.6</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>1012.8</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>2106.86</v>
       </c>
     </row>
     <row r="22">
@@ -1272,15 +1087,6 @@
         <is>
           <t>151.00</t>
         </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>151</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>151</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>68.24</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>82.27</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>77.84</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>68.24</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>33.53</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>86.84999999999999</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>33.53</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>69.74600000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>68.24</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>82.27</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>77.84</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>68.24</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>33.53</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>86.84999999999999</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>33.53</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>69.74600000000001</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>68.24</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>82.27</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>77.84</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>68.24</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>33.53</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>86.84999999999999</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>33.53</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>69.74600000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>68.24</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>82.27</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>77.84</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>68.24</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>33.53</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>86.84999999999999</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>33.53</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>69.74600000000001</v>
       </c>
     </row>
     <row r="31"/>
